--- a/EXCEL/№88 от 04.10.2022 ООО ГОРЗЕЛЕНСТРОЙ от ООО ТД АНМКАС.xlsx
+++ b/EXCEL/№88 от 04.10.2022 ООО ГОРЗЕЛЕНСТРОЙ от ООО ТД АНМКАС.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TradeTable_Smarty_PDO\EXCEL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="КП" sheetId="1" r:id="rId4"/>
+    <sheet name="КП" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'КП'!$A$1:$N$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">КП!$A$1:$N$59</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>ООО  «Торговый дом «АНМАКС»</t>
   </si>
@@ -232,12 +237,6 @@
     <t xml:space="preserve">Условия отгрузки: </t>
   </si>
   <si>
-    <t>Примерная стоимость доставки :</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
     <t>Генеральный директор ООО "ТД "АНМАКС"</t>
   </si>
   <si>
@@ -257,172 +256,112 @@
   </si>
   <si>
     <t>a.guts@anmaks.ru</t>
+  </si>
+  <si>
+    <t>Примерная стоимость доставки : апрапрапрапрапрапрапр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF276fdb"/>
+      <color rgb="FF276FDB"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
@@ -433,170 +372,186 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -604,15 +559,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2724150" cy="4248150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Рисунок 1" descr=""/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -624,7 +579,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="11106150" y="1095375"/>
+          <a:ext cx="2724150" cy="4248150"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -642,7 +600,7 @@
     <xdr:ext cx="3562350" cy="3086100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Подписи" descr="Описание картинки"/>
+        <xdr:cNvPr id="3" name="Подписи" descr="Описание картинки"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -654,7 +612,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -951,178 +912,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true" style="3"/>
-    <col min="2" max="2" width="1.140625" customWidth="true" style="3"/>
-    <col min="3" max="3" width="6.5703125" customWidth="true" style="3"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true" style="2"/>
-    <col min="5" max="5" width="6.28515625" customWidth="true" style="2"/>
-    <col min="6" max="6" width="24.85546875" customWidth="true" style="2"/>
-    <col min="7" max="7" width="9.140625" customWidth="true" style="2"/>
-    <col min="8" max="8" width="9.140625" customWidth="true" style="2"/>
-    <col min="9" max="9" width="7" customWidth="true" style="3"/>
-    <col min="10" max="10" width="3" customWidth="true" style="3"/>
-    <col min="11" max="11" width="12.28515625" customWidth="true" style="3"/>
-    <col min="12" max="12" width="11" customWidth="true" style="3"/>
-    <col min="13" max="13" width="19.140625" customWidth="true" style="3"/>
-    <col min="14" max="14" width="1.7109375" customWidth="true" style="3"/>
-    <col min="15" max="15" width="9.140625" customWidth="true" style="3"/>
-    <col min="16" max="16" width="9.140625" customWidth="true" style="3"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="3"/>
-    <col min="18" max="18" width="10" customWidth="true" style="3"/>
-    <col min="19" max="19" width="9.140625" customWidth="true" style="3"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" style="3" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="13"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="14"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="17" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" customHeight="1" ht="16.5">
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="5" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G5" s="20" t="s">
+      <c r="M3" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G6" s="21" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G8" s="22" t="s">
+    <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:19" customHeight="1" ht="19.5">
-      <c r="G9" s="22" t="s">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:19" customHeight="1" ht="32.25">
-      <c r="G10" s="22" t="s">
+    <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:19" customHeight="1" ht="26.25">
-      <c r="G11" s="22" t="s">
+    <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" customHeight="1" ht="6.75">
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+    <row r="12" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1132,53 +1087,74 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="15" spans="1:19" customHeight="1" ht="15.75">
-      <c r="C15" s="28" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="D15" s="46">
+        <v>3</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:19" customHeight="1" ht="20.25">
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="D16" s="45">
+        <v>9</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="18" spans="1:19" customHeight="1" ht="32.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1189,472 +1165,501 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:19" customHeight="1" ht="30">
-      <c r="C19" s="32">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="32">
+      <c r="J19" s="28"/>
+      <c r="K19" s="13">
         <v>75</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customHeight="1" ht="30">
-      <c r="C20" s="32">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="32" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="32">
+      <c r="J20" s="28"/>
+      <c r="K20" s="13">
         <v>138</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customHeight="1" ht="30">
-      <c r="C21" s="32">
+    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="32" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="32">
+      <c r="J21" s="28"/>
+      <c r="K21" s="13">
         <v>144</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:19" customHeight="1" ht="30">
-      <c r="C22" s="32">
+    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="32" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="32">
+      <c r="J22" s="28"/>
+      <c r="K22" s="13">
         <v>107</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:19" customHeight="1" ht="30">
-      <c r="C23" s="32">
+    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="32" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="32">
+      <c r="J23" s="28"/>
+      <c r="K23" s="13">
         <v>190</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="36" t="s">
+      <c r="M23" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:19" customHeight="1" ht="15">
-      <c r="C24" s="32">
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="32">
+      <c r="J24" s="28"/>
+      <c r="K24" s="13">
         <v>4</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" customHeight="1" ht="15">
-      <c r="C25" s="32">
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="32">
+      <c r="J25" s="28"/>
+      <c r="K25" s="13">
         <v>53</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:19" customHeight="1" ht="15">
-      <c r="C26" s="32">
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="32" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="32">
+      <c r="J26" s="28"/>
+      <c r="K26" s="13">
         <v>34</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="M26" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:19" customHeight="1" ht="15">
-      <c r="C27" s="32">
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="32" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="32">
+      <c r="J27" s="28"/>
+      <c r="K27" s="13">
         <v>3</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="M27" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:19" customHeight="1" ht="15">
-      <c r="C28" s="32">
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="32">
+      <c r="J28" s="28"/>
+      <c r="K28" s="13">
         <v>174</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:19" customHeight="1" ht="15">
-      <c r="C29" s="32">
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="32">
+      <c r="J29" s="28"/>
+      <c r="K29" s="13">
         <v>3</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:19" customHeight="1" ht="15">
-      <c r="C30" s="32">
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="32">
+      <c r="J30" s="28"/>
+      <c r="K30" s="13">
         <v>3</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="36" t="s">
+      <c r="M30" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:19" customHeight="1" ht="15">
-      <c r="C31" s="32">
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="32" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="32">
+      <c r="J31" s="28"/>
+      <c r="K31" s="13">
         <v>3</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:19" customHeight="1" ht="15">
-      <c r="C32" s="32">
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="32" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="32">
+      <c r="J32" s="28"/>
+      <c r="K32" s="13">
         <v>3</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:19" customHeight="1" ht="15">
-      <c r="C33" s="32">
+    <row r="33" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="32">
+      <c r="J33" s="28"/>
+      <c r="K33" s="13">
         <v>2</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="J34" s="37" t="s">
+    <row r="34" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="J35" s="37" t="s">
+    <row r="35" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
-      <c r="C36" s="38" t="s">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" customHeight="1" ht="21">
-      <c r="D40" s="39" t="s">
+    <row r="40" spans="3:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" customHeight="1" ht="21">
-      <c r="D41" s="39" t="s">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="3:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" customHeight="1" ht="21">
-      <c r="D42" s="39" t="s">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="3:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="15">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="37" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="22"/>
+      <c r="L48" s="23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="C48" s="40" t="s">
+      <c r="M48" s="22"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="40" t="s">
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="C52" s="41" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="C53" s="41" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
-      <c r="C54" s="41" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="C55" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="C56" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="62">
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:M12"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M16"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="G9:I9"/>
@@ -1705,33 +1710,24 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="L48:M48"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:M40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:M41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="L48:M48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId_hyperlink_1"/>
-    <hyperlink ref="L2" r:id="rId_hyperlink_2"/>
-    <hyperlink ref="C56" r:id="rId_hyperlink_3"/>
+    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="C56" r:id="rId3"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="68" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>